--- a/performance.xlsx
+++ b/performance.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>Anzahl Nanoentities</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>% Graph creation</t>
+  </si>
+  <si>
+    <t>Total in s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of nanoentities </t>
+  </si>
+  <si>
+    <t>Intel® Core™ i5-5200 CPU @ 2.2GHz</t>
+  </si>
+  <si>
+    <t>HP Elitebook with 64bit Windows 10</t>
+  </si>
+  <si>
+    <t>8 GB Ram</t>
   </si>
 </sst>
 </file>
@@ -210,7 +228,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Total in s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5064,23 +5082,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -5114,7 +5133,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
@@ -5167,11 +5186,13 @@
         <v>10</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5238,11 +5259,12 @@
         <f>SUM(R3:S3)/1000</f>
         <v>0.10425</v>
       </c>
-      <c r="X3" t="s">
-        <v>7</v>
+      <c r="U3">
+        <f>R3/((R3+S3)/100)</f>
+        <v>69.304556354916073</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5312,8 +5334,12 @@
         <f t="shared" ref="T4:T35" si="8">SUM(R4:S4)/1000</f>
         <v>0.1802</v>
       </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U35" si="9">R4/((R4+S4)/100)</f>
+        <v>71.365149833518316</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5383,8 +5409,12 @@
         <f t="shared" si="8"/>
         <v>0.2392</v>
       </c>
+      <c r="U5">
+        <f t="shared" si="9"/>
+        <v>81.939799331103686</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5454,8 +5484,12 @@
         <f t="shared" si="8"/>
         <v>0.22919999999999999</v>
       </c>
+      <c r="U6">
+        <f t="shared" si="9"/>
+        <v>72.513089005235599</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5525,8 +5559,12 @@
         <f t="shared" si="8"/>
         <v>0.30280000000000001</v>
       </c>
+      <c r="U7">
+        <f t="shared" si="9"/>
+        <v>74.108322324966977</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5596,8 +5634,12 @@
         <f t="shared" si="8"/>
         <v>0.33320000000000005</v>
       </c>
+      <c r="U8">
+        <f t="shared" si="9"/>
+        <v>72.869147659063628</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5667,8 +5709,12 @@
         <f t="shared" si="8"/>
         <v>0.34359999999999996</v>
       </c>
+      <c r="U9">
+        <f t="shared" si="9"/>
+        <v>76.658905704307344</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5738,8 +5784,12 @@
         <f t="shared" si="8"/>
         <v>0.44879999999999998</v>
       </c>
+      <c r="U10">
+        <f t="shared" si="9"/>
+        <v>78.297682709447415</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5809,8 +5859,12 @@
         <f t="shared" si="8"/>
         <v>0.49179999999999996</v>
       </c>
+      <c r="U11">
+        <f t="shared" si="9"/>
+        <v>74.298495323302163</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5880,8 +5934,12 @@
         <f t="shared" si="8"/>
         <v>0.59139999999999993</v>
       </c>
+      <c r="U12">
+        <f t="shared" si="9"/>
+        <v>75.448089279675344</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5951,8 +6009,12 @@
         <f t="shared" si="8"/>
         <v>0.67620000000000002</v>
       </c>
+      <c r="U13">
+        <f t="shared" si="9"/>
+        <v>78.881987577639748</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6022,8 +6084,12 @@
         <f t="shared" si="8"/>
         <v>0.81459999999999988</v>
       </c>
+      <c r="U14">
+        <f t="shared" si="9"/>
+        <v>74.981586054505286</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6093,8 +6159,12 @@
         <f t="shared" si="8"/>
         <v>1.093</v>
       </c>
+      <c r="U15">
+        <f t="shared" si="9"/>
+        <v>73.705397987191219</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6164,8 +6234,12 @@
         <f t="shared" si="8"/>
         <v>0.9917999999999999</v>
       </c>
+      <c r="U16">
+        <f t="shared" si="9"/>
+        <v>80.621092962290788</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6235,8 +6309,12 @@
         <f t="shared" si="8"/>
         <v>1.0326</v>
       </c>
+      <c r="U17">
+        <f t="shared" si="9"/>
+        <v>83.343017625411591</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6306,8 +6384,12 @@
         <f t="shared" si="8"/>
         <v>1.1702000000000001</v>
       </c>
+      <c r="U18">
+        <f t="shared" si="9"/>
+        <v>85.14783797641428</v>
+      </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6377,8 +6459,12 @@
         <f t="shared" si="8"/>
         <v>1.218</v>
       </c>
+      <c r="U19">
+        <f t="shared" si="9"/>
+        <v>85.812807881773409</v>
+      </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6448,8 +6534,12 @@
         <f t="shared" si="8"/>
         <v>1.3872</v>
       </c>
+      <c r="U20">
+        <f t="shared" si="9"/>
+        <v>86.274509803921561</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6519,8 +6609,12 @@
         <f t="shared" si="8"/>
         <v>1.5604</v>
       </c>
+      <c r="U21">
+        <f t="shared" si="9"/>
+        <v>79.274544988464498</v>
+      </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6590,8 +6684,12 @@
         <f t="shared" si="8"/>
         <v>2.0358000000000001</v>
       </c>
+      <c r="U22">
+        <f t="shared" si="9"/>
+        <v>71.097357304253862</v>
+      </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6661,8 +6759,12 @@
         <f t="shared" si="8"/>
         <v>2.0891999999999999</v>
       </c>
+      <c r="U23">
+        <f t="shared" si="9"/>
+        <v>76.861956729848742</v>
+      </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -6732,8 +6834,12 @@
         <f t="shared" si="8"/>
         <v>2.6881999999999997</v>
       </c>
+      <c r="U24">
+        <f t="shared" si="9"/>
+        <v>78.863179822929851</v>
+      </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -6803,8 +6909,12 @@
         <f t="shared" si="8"/>
         <v>2.8033999999999994</v>
       </c>
+      <c r="U25">
+        <f t="shared" si="9"/>
+        <v>78.818577441677974</v>
+      </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -6874,8 +6984,12 @@
         <f t="shared" si="8"/>
         <v>3.1825999999999999</v>
       </c>
+      <c r="U26">
+        <f t="shared" si="9"/>
+        <v>71.092817193489594</v>
+      </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6945,8 +7059,12 @@
         <f t="shared" si="8"/>
         <v>3.468</v>
       </c>
+      <c r="U27">
+        <f t="shared" si="9"/>
+        <v>81.182237600922718</v>
+      </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -7016,8 +7134,12 @@
         <f t="shared" si="8"/>
         <v>4.4714</v>
       </c>
+      <c r="U28">
+        <f t="shared" si="9"/>
+        <v>82.269535268595959</v>
+      </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -7087,8 +7209,12 @@
         <f t="shared" si="8"/>
         <v>4.9841999999999995</v>
       </c>
+      <c r="U29">
+        <f t="shared" si="9"/>
+        <v>70.209863167609655</v>
+      </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -7158,8 +7284,12 @@
         <f t="shared" si="8"/>
         <v>6.2087999999999992</v>
       </c>
+      <c r="U30">
+        <f t="shared" si="9"/>
+        <v>77.602757376626727</v>
+      </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -7229,8 +7359,12 @@
         <f t="shared" si="8"/>
         <v>5.6007999999999996</v>
       </c>
+      <c r="U31">
+        <f t="shared" si="9"/>
+        <v>64.851449792886726</v>
+      </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -7300,8 +7434,12 @@
         <f t="shared" si="8"/>
         <v>6.6798000000000002</v>
       </c>
+      <c r="U32">
+        <f t="shared" si="9"/>
+        <v>64.157609509266749</v>
+      </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>40</v>
       </c>
@@ -7371,8 +7509,12 @@
         <f t="shared" si="8"/>
         <v>11.9834</v>
       </c>
+      <c r="U33">
+        <f t="shared" si="9"/>
+        <v>79.182869636330253</v>
+      </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>50</v>
       </c>
@@ -7442,8 +7584,12 @@
         <f t="shared" si="8"/>
         <v>19.688400000000001</v>
       </c>
+      <c r="U34">
+        <f t="shared" si="9"/>
+        <v>93.34633591353284</v>
+      </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>60</v>
       </c>
@@ -7502,16 +7648,35 @@
         <v>24944</v>
       </c>
       <c r="R35">
-        <f t="shared" ref="R35" si="9">AVERAGE(C35,F35,I35,L35,O35)</f>
+        <f t="shared" ref="R35" si="10">AVERAGE(C35,F35,I35,L35,O35)</f>
         <v>27887</v>
       </c>
       <c r="S35">
-        <f t="shared" ref="S35" si="10">AVERAGE(D35,G35,J35,M35,P35)</f>
+        <f t="shared" ref="S35" si="11">AVERAGE(D35,G35,J35,M35,P35)</f>
         <v>1860.8</v>
       </c>
       <c r="T35">
         <f t="shared" si="8"/>
         <v>29.747799999999998</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="9"/>
+        <v>93.744747510740282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
